--- a/5. WS/1. Bộ phận bảo hành/2. Báo cáo công việc/Năm 2021/Tháng 2/Báo cáo công việc - Danh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/2. Báo cáo công việc/Năm 2021/Tháng 2/Báo cáo công việc - Danh.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BAO HANH\VNET\5. WS\1. Bộ phận bảo hành\2. Báo cáo công việc\Năm 2021\Tháng 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BAO HANH\VNET\5. WS\1. Bộ phận bảo hành\2. Báo cáo công việc\Năm 2021\Tháng 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="31">
-  <si>
-    <t>Báo cáo công việc hằng  tuần ( từ ngày 11 đến ngày 16 tháng 1 năm 2021 )</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="37">
   <si>
     <t>Ngày làm việc</t>
   </si>
@@ -69,55 +66,76 @@
     <t>Số lượng</t>
   </si>
   <si>
+    <t>Test thiết bị Taris HN</t>
+  </si>
+  <si>
+    <t>Lỗi</t>
+  </si>
+  <si>
+    <t>Nguyên nhân lỗi</t>
+  </si>
+  <si>
+    <t>Số lượng lỗi</t>
+  </si>
+  <si>
+    <t>Không chốt GPS</t>
+  </si>
+  <si>
+    <t>Linh kiện chưa ăn thiếc</t>
+  </si>
+  <si>
+    <t>Tỉ lệ lỗi (%)</t>
+  </si>
+  <si>
+    <t>Báo cáo công việc tháng</t>
+  </si>
+  <si>
+    <t>Tên công việc</t>
+  </si>
+  <si>
+    <t>Nguyên nhân</t>
+  </si>
+  <si>
+    <t>Thiếu thiếc linh kiện</t>
+  </si>
+  <si>
+    <t>Báo cáo công việc hằng  tuần ( từ ngày 01 đến ngày 05 tháng 02 năm 2021 )</t>
+  </si>
+  <si>
+    <t>Báo cáo công việc hằng  tuần ( từ ngày 17 đến ngày 20 tháng 02 năm 2021 )</t>
+  </si>
+  <si>
+    <t>Test thiết bị, dán tem vỏ hộp</t>
+  </si>
+  <si>
+    <t>Dán tem vỏ hộp</t>
+  </si>
+  <si>
+    <t>Đóng vỏ hộp thiết bị</t>
+  </si>
+  <si>
     <t>Đã xong</t>
   </si>
   <si>
-    <t>Hàn hạt sáng + Test thiết bị</t>
-  </si>
-  <si>
-    <t>Test thiết bị Taris HN</t>
-  </si>
-  <si>
-    <t>Lỗi</t>
-  </si>
-  <si>
-    <t>Nguyên nhân lỗi</t>
-  </si>
-  <si>
-    <t>Số lượng lỗi</t>
-  </si>
-  <si>
-    <t>Không chốt GPS</t>
-  </si>
-  <si>
-    <t>Linh kiện chưa ăn thiếc</t>
-  </si>
-  <si>
-    <t>Tỉ lệ lỗi (%)</t>
-  </si>
-  <si>
-    <t>Báo cáo công việc hằng  tuần ( từ ngày 18 đến ngày 22 tháng 01 năm 2021 )</t>
-  </si>
-  <si>
-    <t>Báo cáo công việc tháng</t>
-  </si>
-  <si>
-    <t>Tên công việc</t>
-  </si>
-  <si>
-    <t>Nguyên nhân</t>
-  </si>
-  <si>
-    <t>Thiếu thiếc linh kiện</t>
-  </si>
-  <si>
-    <t>Đóng thùng nhập kho thiết bị</t>
-  </si>
-  <si>
-    <t>Làm dây</t>
-  </si>
-  <si>
-    <t>Báo cáo công việc hằng  tuần ( từ ngày 25 đến ngày 30 tháng 01 năm 2021 )</t>
+    <t>Báo cáo công việc hằng  tuần ( từ ngày 22 đến ngày 27 tháng 02 năm 2021 )</t>
+  </si>
+  <si>
+    <t>Test thiết bị + đóng hộp</t>
+  </si>
+  <si>
+    <t>Kiểm tra thiết bị LE 4G, sửa lỗi ban đầu</t>
+  </si>
+  <si>
+    <t>chưa ăn thiếc chân linh kiện</t>
+  </si>
+  <si>
+    <t>linh kiện nhỏ, mạch chưa phù hợp</t>
+  </si>
+  <si>
+    <t>Đóng thùng thiết bị</t>
+  </si>
+  <si>
+    <t>Nạp FW thiết bị TG102LE 4G</t>
   </si>
 </sst>
 </file>
@@ -265,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -289,6 +307,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -587,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,150 +624,163 @@
     <col min="8" max="8" width="18.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13"/>
-    </row>
-    <row r="2" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>215</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="G3" s="2">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2">
+        <f>(G3/D3)*100</f>
+        <v>7.441860465116279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="D4" s="2">
-        <v>300</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="G4" s="2">
         <v>6</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" ref="H4" si="0">(G4/D4)*100</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(G4/D4)*100</f>
+        <v>1.7391304347826086</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2">
+        <v>195</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4</v>
+      </c>
+      <c r="H5" s="2">
+        <f>(G5/D5)*100</f>
+        <v>2.0512820512820511</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="J5">
-        <f>G7+G13+G14+G16+G23+G24+G25+G26+G27+G28</f>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>750</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="2">
-        <v>450</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="2">
-        <v>17</v>
-      </c>
-      <c r="H7" s="2">
-        <f>(G7/D7)*100</f>
-        <v>3.7777777777777777</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -758,161 +790,151 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2">
+        <v>165</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="G15" s="2">
+        <v>3</v>
+      </c>
+      <c r="H15" s="2">
+        <f>(G15/D15)*100</f>
+        <v>1.8181818181818181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="2">
-        <v>315</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="2">
-        <v>14</v>
-      </c>
-      <c r="H13" s="2">
-        <f>(G13/D13)*100</f>
-        <v>4.4444444444444446</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="2">
-        <v>230</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="2">
-        <v>12</v>
-      </c>
-      <c r="H14" s="2">
-        <f>(G14/D14)*100</f>
-        <v>5.2173913043478262</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" s="2">
-        <v>425</v>
+        <v>70</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G16" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" ref="H16" si="1">(G16/D16)*100</f>
-        <v>2.1176470588235294</v>
+        <f t="shared" ref="H16:H17" si="0">(G16/D16)*100</f>
+        <v>4.2857142857142856</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="D17" s="2">
+        <v>145</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="2">
+        <v>3</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0689655172413794</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -923,196 +945,162 @@
       <c r="H18" s="2"/>
     </row>
     <row r="21" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23" s="2">
-        <v>315</v>
+        <v>35</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="2">
-        <v>13</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G23" s="2"/>
       <c r="H23" s="2">
         <f>(G23/D23)*100</f>
-        <v>4.1269841269841265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D24" s="2">
-        <v>215</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="2">
-        <v>3</v>
-      </c>
-      <c r="H24" s="2">
-        <f t="shared" ref="H24:H27" si="2">(G24/D24)*100</f>
-        <v>1.3953488372093024</v>
-      </c>
+        <v>1750</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D25" s="2">
-        <v>300</v>
+        <v>125</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="2">
-        <v>10</v>
-      </c>
-      <c r="H25" s="2">
-        <f t="shared" si="2"/>
-        <v>3.3333333333333335</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26" s="2">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="2">
-        <v>8</v>
-      </c>
-      <c r="H26" s="2">
-        <f t="shared" si="2"/>
-        <v>3.2</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D27" s="2">
-        <v>235</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" s="2">
-        <v>1</v>
-      </c>
-      <c r="H27" s="2">
-        <f t="shared" si="2"/>
-        <v>0.42553191489361702</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28" s="2">
-        <v>240</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
@@ -1147,38 +1135,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="A1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="8">
         <v>800</v>
@@ -1190,16 +1178,16 @@
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B4" s="8">
         <v>300</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E4" s="8">
         <v>6</v>
@@ -1211,16 +1199,16 @@
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="8">
         <v>2975</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5" s="8">
         <v>87</v>

--- a/5. WS/1. Bộ phận bảo hành/2. Báo cáo công việc/Năm 2021/Tháng 2/Báo cáo công việc - Danh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/2. Báo cáo công việc/Năm 2021/Tháng 2/Báo cáo công việc - Danh.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="39">
   <si>
     <t>Ngày làm việc</t>
   </si>
@@ -136,6 +136,12 @@
   </si>
   <si>
     <t>Nạp FW thiết bị TG102LE 4G</t>
+  </si>
+  <si>
+    <t>Không nạp  được IAP</t>
+  </si>
+  <si>
+    <t>Lỗi MCU</t>
   </si>
 </sst>
 </file>
@@ -199,7 +205,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -279,11 +285,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -324,6 +356,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -608,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E33" sqref="D33:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1079,12 +1117,21 @@
         <v>10</v>
       </c>
       <c r="D27" s="2">
-        <v>100</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="16">
+        <v>207</v>
+      </c>
+      <c r="H27" s="16">
+        <f>(207/500)*100</f>
+        <v>41.4</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -1099,16 +1146,22 @@
       <c r="D28" s="2">
         <v>200</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="A1:H1"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/2. Báo cáo công việc/Năm 2021/Tháng 2/Báo cáo công việc - Danh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/2. Báo cáo công việc/Năm 2021/Tháng 2/Báo cáo công việc - Danh.xlsx
@@ -355,13 +355,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -647,7 +647,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E33" sqref="D33:E33"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1125,12 +1125,12 @@
       <c r="F27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G27" s="16">
-        <v>207</v>
-      </c>
-      <c r="H27" s="16">
-        <f>(207/500)*100</f>
-        <v>41.4</v>
+      <c r="G27" s="15">
+        <v>221</v>
+      </c>
+      <c r="H27" s="15">
+        <f>(G27/500)*100</f>
+        <v>44.2</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1152,8 +1152,8 @@
       <c r="F28" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1188,14 +1188,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
